--- a/submissions/CodeMapper/src/FreeMindLabs.SemanticKernel.Plugins.CodeMapper/CodeMatrixData.xlsx
+++ b/submissions/CodeMapper/src/FreeMindLabs.SemanticKernel.Plugins.CodeMapper/CodeMatrixData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfowler\Documents\Personal\FML\CodeMatrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semantic-kernel-v1.0-hackathon\submissions\CodeMapper\src\FreeMindLabs.SemanticKernel.Plugins.CodeMapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B84C84-D765-4450-8930-C413B6F6380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6C0DC-54BF-4925-98B6-8A95F2B4BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D1F43ECB-FB33-401F-B5F1-54568FC5B335}"/>
+    <workbookView xWindow="19530" yWindow="1500" windowWidth="26565" windowHeight="17925" activeTab="1" xr2:uid="{D1F43ECB-FB33-401F-B5F1-54568FC5B335}"/>
   </bookViews>
   <sheets>
     <sheet name="SourceCategories" sheetId="1" r:id="rId1"/>
@@ -1011,18 +1011,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,7 +1028,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,63 +1052,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_IEPDN-DEx 20 NIEM CMT10232007 CODES WORKING 2" xfId="1" xr:uid="{D902FE6B-0DE4-4874-8ABD-83471DAD31C4}"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1164,6 +1110,107 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1173,7 +1220,6 @@
       <font>
         <b val="0"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -1186,11 +1232,6 @@
         <b val="0"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1264,51 +1305,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1323,7 +1319,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FE546A9-BFF4-4AEF-B280-F95412D3EB01}" name="Table2" displayName="Table2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6FE546A9-BFF4-4AEF-B280-F95412D3EB01}" name="Table2" displayName="Table2" ref="A1:C6" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:C6" xr:uid="{6FE546A9-BFF4-4AEF-B280-F95412D3EB01}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BF27D14A-A6D9-4742-A644-D3B3FBC355C7}" name="Id"/>
@@ -1335,23 +1331,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D8A34E-9CF9-4B50-8E62-1439677DC28D}" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="28" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3D8A34E-9CF9-4B50-8E62-1439677DC28D}" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E56" xr:uid="{D3D8A34E-9CF9-4B50-8E62-1439677DC28D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F652D995-91B2-44B2-9995-24DBFB88E01D}" name="Id" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7167167F-D692-4491-87E8-EBD7843D3209}" name="CategoryId" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{F74D151B-692F-4718-A010-34AC6AB3E0B3}" name="CategoryDescription" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{F652D995-91B2-44B2-9995-24DBFB88E01D}" name="Id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7167167F-D692-4491-87E8-EBD7843D3209}" name="CategoryId" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F74D151B-692F-4718-A010-34AC6AB3E0B3}" name="CategoryDescription" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(B2,SourceCategories!$A$2:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{24779F09-1B92-4A32-ABE8-2B401C431FEE}" name="Code" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{E9F40144-5337-469C-80C9-FD04F62311D5}" name="Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{24779F09-1B92-4A32-ABE8-2B401C431FEE}" name="Code" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E9F40144-5337-469C-80C9-FD04F62311D5}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C5DE9544-2434-424E-9A8B-61C14D10FFAD}" name="Table24" displayName="Table24" ref="A1:C6" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C5DE9544-2434-424E-9A8B-61C14D10FFAD}" name="Table24" displayName="Table24" ref="A1:C6" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:C6" xr:uid="{C5DE9544-2434-424E-9A8B-61C14D10FFAD}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{255D0F5D-F1E3-41CF-97BC-5CED0403E14D}" name="Id"/>
@@ -1363,16 +1359,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF68EAB9-9407-4798-BD9A-8F2940ED3E35}" name="Table15" displayName="Table15" ref="A1:E135" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CF68EAB9-9407-4798-BD9A-8F2940ED3E35}" name="Table15" displayName="Table15" ref="A1:E135" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:E135" xr:uid="{CF68EAB9-9407-4798-BD9A-8F2940ED3E35}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7C597D04-D8A5-4AD0-85A9-B4621D78AFE9}" name="Id" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{BDCAF6F6-63A1-4EB8-A943-14A86025B363}" name="CategoryId" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{4E33CA27-6DFE-4A8B-B358-96486B79513E}" name="CategoryDescription" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{7C597D04-D8A5-4AD0-85A9-B4621D78AFE9}" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{BDCAF6F6-63A1-4EB8-A943-14A86025B363}" name="CategoryId" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{4E33CA27-6DFE-4A8B-B358-96486B79513E}" name="CategoryDescription" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP(B2,DestinationCategories!$A$2:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D8F1AF4E-3105-41CA-B633-8753FFF4FC71}" name="Code" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C46911A0-DE73-47DF-A9E4-7528DB3E60DA}" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D8F1AF4E-3105-41CA-B633-8753FFF4FC71}" name="Code" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{C46911A0-DE73-47DF-A9E4-7528DB3E60DA}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1384,11 +1380,11 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DCE3EFC0-0716-49BB-91E9-6D5840F08A97}" name="Id"/>
     <tableColumn id="2" xr3:uid="{9C96D345-EA77-4039-980E-0D83B43CBB4F}" name="SourceCategoryId"/>
-    <tableColumn id="3" xr3:uid="{E1843EC0-444F-47C5-94D3-92338EEC9173}" name="SourceCategoryDescription" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{E1843EC0-444F-47C5-94D3-92338EEC9173}" name="SourceCategoryDescription" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(B2,SourceCategories!$A$2:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{EFB74A34-C661-4554-BE68-3CE15EE89C8D}" name="DestinationCategoryId"/>
-    <tableColumn id="5" xr3:uid="{1F045D1B-3A00-4B72-AD3D-96B432CA08FE}" name="DestinationCategoryDescription" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{1F045D1B-3A00-4B72-AD3D-96B432CA08FE}" name="DestinationCategoryDescription" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(D2,DestinationCategories!$A$2:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1397,24 +1393,24 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{035043E5-85D2-4AB7-8224-832EAFF35A10}" name="Table17" displayName="Table17" ref="A1:I56" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{035043E5-85D2-4AB7-8224-832EAFF35A10}" name="Table17" displayName="Table17" ref="A1:I56" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:I56" xr:uid="{035043E5-85D2-4AB7-8224-832EAFF35A10}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{89F2E29D-AE0C-41E3-8A13-5329F01AADAA}" name="Id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{3A9D304D-0BFF-4695-A72B-0C91842D5037}" name="SourceCategoryId" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{85ED3143-BC02-4E2A-A874-19AEA8881B11}" name="SourceCategoryDescription" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{89F2E29D-AE0C-41E3-8A13-5329F01AADAA}" name="Id" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3A9D304D-0BFF-4695-A72B-0C91842D5037}" name="SourceCategoryId" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{85ED3143-BC02-4E2A-A874-19AEA8881B11}" name="SourceCategoryDescription" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(B2,SourceCategories!$A$2:$C$6,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3AE2368A-BED6-48A4-B49A-54B673DA0C32}" name="DestinationCategoryId" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{3AE2368A-BED6-48A4-B49A-54B673DA0C32}" name="DestinationCategoryId" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(B2,CategoryMappings!$A$2:$E$6,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{EEC63F57-8B6E-43B2-A918-1C31D998E0BA}" name="DestinationCategoryDescription" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{EEC63F57-8B6E-43B2-A918-1C31D998E0BA}" name="DestinationCategoryDescription" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP(B2,CategoryMappings!$A$2:$E$6,5,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52A52B72-EF6F-401F-B45F-CE19CD10BE2F}" name="SourceCode" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{DCB11B4C-15ED-467C-8C9A-024940353841}" name="SourceDescription" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{412EC52A-95D4-440C-B292-CA55A14DAB73}" name="DestinationCode" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{863A61E3-D0D4-4114-83DB-164D4EC707F6}" name="DestinationDescription" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{52A52B72-EF6F-401F-B45F-CE19CD10BE2F}" name="SourceCode" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{DCB11B4C-15ED-467C-8C9A-024940353841}" name="SourceDescription" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{412EC52A-95D4-440C-B292-CA55A14DAB73}" name="DestinationCode" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{863A61E3-D0D4-4114-83DB-164D4EC707F6}" name="DestinationDescription" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1720,7 +1716,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11D6820-EB11-4764-8917-0B0F383A058B}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,6 +1813,7 @@
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1847,7 @@
         <f>VLOOKUP(B2,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Sex Codes</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1869,7 +1866,7 @@
         <f>VLOOKUP(B3,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Sex Codes</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1884,11 +1881,11 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="2" t="str">
         <f>VLOOKUP(B4,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Sex Codes</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="2"/>
@@ -1908,7 +1905,7 @@
         <f>VLOOKUP(B5,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1927,7 +1924,7 @@
         <f>VLOOKUP(B6,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1946,7 +1943,7 @@
         <f>VLOOKUP(B7,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1965,7 +1962,7 @@
         <f>VLOOKUP(B8,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1980,11 +1977,11 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="2" t="str">
         <f>VLOOKUP(B9,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2003,7 +2000,7 @@
         <f>VLOOKUP(B10,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2018,11 +2015,11 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>VLOOKUP(B11,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -2041,7 +2038,7 @@
         <f>VLOOKUP(B12,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2056,11 +2053,11 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>VLOOKUP(B13,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -2075,11 +2072,11 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f>VLOOKUP(B14,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2098,7 +2095,7 @@
         <f>VLOOKUP(B15,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -2117,7 +2114,7 @@
         <f>VLOOKUP(B16,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -2136,7 +2133,7 @@
         <f>VLOOKUP(B17,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -2151,11 +2148,11 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <f>VLOOKUP(B18,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="2"/>
@@ -2171,11 +2168,11 @@
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>VLOOKUP(B19,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -2194,7 +2191,7 @@
         <f>VLOOKUP(B20,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2213,7 +2210,7 @@
         <f>VLOOKUP(B21,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2228,11 +2225,11 @@
       <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <f>VLOOKUP(B22,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E22" s="2"/>
@@ -2249,7 +2246,7 @@
         <f>VLOOKUP(B23,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2268,7 +2265,7 @@
         <f>VLOOKUP(B24,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2287,7 +2284,7 @@
         <f>VLOOKUP(B25,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2306,7 +2303,7 @@
         <f>VLOOKUP(B26,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2325,7 +2322,7 @@
         <f>VLOOKUP(B27,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -2344,7 +2341,7 @@
         <f>VLOOKUP(B28,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -2363,7 +2360,7 @@
         <f>VLOOKUP(B29,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2382,7 +2379,7 @@
         <f>VLOOKUP(B30,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2401,7 +2398,7 @@
         <f>VLOOKUP(B31,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2420,7 +2417,7 @@
         <f>VLOOKUP(B32,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2439,7 +2436,7 @@
         <f>VLOOKUP(B33,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2454,11 +2451,11 @@
       <c r="B34" s="2">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="2" t="str">
         <f>VLOOKUP(B34,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>125</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -2477,7 +2474,7 @@
         <f>VLOOKUP(B35,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2496,7 +2493,7 @@
         <f>VLOOKUP(B36,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2515,7 +2512,7 @@
         <f>VLOOKUP(B37,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2534,7 +2531,7 @@
         <f>VLOOKUP(B38,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -2553,7 +2550,7 @@
         <f>VLOOKUP(B39,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2572,7 +2569,7 @@
         <f>VLOOKUP(B40,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E40" s="2"/>
@@ -2589,7 +2586,7 @@
         <f>VLOOKUP(B41,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -2611,7 +2608,7 @@
         <f>VLOOKUP(B42,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2630,7 +2627,7 @@
         <f>VLOOKUP(B43,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2649,7 +2646,7 @@
         <f>VLOOKUP(B44,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2668,7 +2665,7 @@
         <f>VLOOKUP(B45,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -2687,7 +2684,7 @@
         <f>VLOOKUP(B46,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -2706,7 +2703,7 @@
         <f>VLOOKUP(B47,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2725,7 +2722,7 @@
         <f>VLOOKUP(B48,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -2744,7 +2741,7 @@
         <f>VLOOKUP(B49,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2763,7 +2760,7 @@
         <f>VLOOKUP(B50,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>2501</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2778,11 +2775,11 @@
       <c r="B51" s="2">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="2" t="str">
         <f>VLOOKUP(B51,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2804,7 +2801,7 @@
         <f>VLOOKUP(B52,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>2660</v>
       </c>
       <c r="E52" s="2"/>
@@ -2824,7 +2821,7 @@
         <f>VLOOKUP(B53,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2843,7 +2840,7 @@
         <f>VLOOKUP(B54,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E54" s="2"/>
@@ -2860,7 +2857,7 @@
         <f>VLOOKUP(B55,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E55" s="2"/>
@@ -2877,7 +2874,7 @@
         <f>VLOOKUP(B56,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -3040,10 +3037,10 @@
         <f>VLOOKUP(B2,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3059,10 +3056,10 @@
         <f>VLOOKUP(B3,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3078,10 +3075,10 @@
         <f>VLOOKUP(B4,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3097,10 +3094,10 @@
         <f>VLOOKUP(B5,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3116,10 +3113,10 @@
         <f>VLOOKUP(B6,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3135,10 +3132,10 @@
         <f>VLOOKUP(B7,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3150,14 +3147,14 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="2" t="str">
         <f>VLOOKUP(B8,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3173,10 +3170,10 @@
         <f>VLOOKUP(B9,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3188,14 +3185,14 @@
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="2" t="str">
         <f>VLOOKUP(B10,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3207,14 +3204,14 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>VLOOKUP(B11,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3226,14 +3223,14 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <f>VLOOKUP(B12,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3245,14 +3242,14 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>VLOOKUP(B13,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3264,14 +3261,14 @@
       <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f>VLOOKUP(B14,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3283,14 +3280,14 @@
       <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f>VLOOKUP(B15,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="13" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3302,14 +3299,14 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="2" t="str">
         <f>VLOOKUP(B16,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3321,14 +3318,14 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="2" t="str">
         <f>VLOOKUP(B17,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3340,14 +3337,14 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <f>VLOOKUP(B18,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3359,14 +3356,14 @@
       <c r="B19" s="2">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>VLOOKUP(B19,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3378,14 +3375,14 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="2" t="str">
         <f>VLOOKUP(B20,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3397,14 +3394,14 @@
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="2" t="str">
         <f>VLOOKUP(B21,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3416,14 +3413,14 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <f>VLOOKUP(B22,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3435,14 +3432,14 @@
       <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="2" t="str">
         <f>VLOOKUP(B23,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3454,14 +3451,14 @@
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="2" t="str">
         <f>VLOOKUP(B24,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3473,14 +3470,14 @@
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="2" t="str">
         <f>VLOOKUP(B25,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3492,14 +3489,14 @@
       <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="2" t="str">
         <f>VLOOKUP(B26,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3511,14 +3508,14 @@
       <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="2" t="str">
         <f>VLOOKUP(B27,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3530,14 +3527,14 @@
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="2" t="str">
         <f>VLOOKUP(B28,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3549,14 +3546,14 @@
       <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="2" t="str">
         <f>VLOOKUP(B29,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3568,14 +3565,14 @@
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="2" t="str">
         <f>VLOOKUP(B30,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3587,14 +3584,14 @@
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="2" t="str">
         <f>VLOOKUP(B31,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3606,14 +3603,14 @@
       <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="2" t="str">
         <f>VLOOKUP(B32,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3625,14 +3622,14 @@
       <c r="B33" s="2">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="2" t="str">
         <f>VLOOKUP(B33,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3644,14 +3641,14 @@
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="2" t="str">
         <f>VLOOKUP(B34,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3663,14 +3660,14 @@
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="2" t="str">
         <f>VLOOKUP(B35,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3682,14 +3679,14 @@
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="2" t="str">
         <f>VLOOKUP(B36,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3701,14 +3698,14 @@
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="2" t="str">
         <f>VLOOKUP(B37,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3720,14 +3717,14 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="2" t="str">
         <f>VLOOKUP(B38,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3739,14 +3736,14 @@
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="2" t="str">
         <f>VLOOKUP(B39,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3758,14 +3755,14 @@
       <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="2" t="str">
         <f>VLOOKUP(B40,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="13" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3777,14 +3774,14 @@
       <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="2" t="str">
         <f>VLOOKUP(B41,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3796,14 +3793,14 @@
       <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="2" t="str">
         <f>VLOOKUP(B42,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3815,14 +3812,14 @@
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="2" t="str">
         <f>VLOOKUP(B43,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3834,14 +3831,14 @@
       <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="2" t="str">
         <f>VLOOKUP(B44,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3853,14 +3850,14 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="2" t="str">
         <f>VLOOKUP(B45,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3872,14 +3869,14 @@
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="2" t="str">
         <f>VLOOKUP(B46,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3891,14 +3888,14 @@
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="2" t="str">
         <f>VLOOKUP(B47,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3910,14 +3907,14 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="2" t="str">
         <f>VLOOKUP(B48,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3929,14 +3926,14 @@
       <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="2" t="str">
         <f>VLOOKUP(B49,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="13" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3948,14 +3945,14 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="2" t="str">
         <f>VLOOKUP(B50,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="13" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3967,14 +3964,14 @@
       <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="2" t="str">
         <f>VLOOKUP(B51,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="13" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3986,14 +3983,14 @@
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="2" t="str">
         <f>VLOOKUP(B52,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="13" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4005,14 +4002,14 @@
       <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="2" t="str">
         <f>VLOOKUP(B53,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="13" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4024,14 +4021,14 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="2" t="str">
         <f>VLOOKUP(B54,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="13" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4043,14 +4040,14 @@
       <c r="B55" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="2" t="str">
         <f>VLOOKUP(B55,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4062,14 +4059,14 @@
       <c r="B56" s="2">
         <v>1</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="2" t="str">
         <f>VLOOKUP(B56,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4081,14 +4078,14 @@
       <c r="B57" s="2">
         <v>1</v>
       </c>
-      <c r="C57" s="3" t="str">
+      <c r="C57" s="2" t="str">
         <f>VLOOKUP(B57,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4100,14 +4097,14 @@
       <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="2" t="str">
         <f>VLOOKUP(B58,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="13" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4119,14 +4116,14 @@
       <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="2" t="str">
         <f>VLOOKUP(B59,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="13" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4138,14 +4135,14 @@
       <c r="B60" s="2">
         <v>1</v>
       </c>
-      <c r="C60" s="3" t="str">
+      <c r="C60" s="2" t="str">
         <f>VLOOKUP(B60,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="13" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4157,14 +4154,14 @@
       <c r="B61" s="2">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="2" t="str">
         <f>VLOOKUP(B61,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E61" s="13" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4176,14 +4173,14 @@
       <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="2" t="str">
         <f>VLOOKUP(B62,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E62" s="13" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4195,14 +4192,14 @@
       <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="2" t="str">
         <f>VLOOKUP(B63,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="E63" s="14" t="s">
+      <c r="E63" s="13" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4214,14 +4211,14 @@
       <c r="B64" s="2">
         <v>1</v>
       </c>
-      <c r="C64" s="3" t="str">
+      <c r="C64" s="2" t="str">
         <f>VLOOKUP(B64,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="13" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4233,14 +4230,14 @@
       <c r="B65" s="2">
         <v>1</v>
       </c>
-      <c r="C65" s="3" t="str">
+      <c r="C65" s="2" t="str">
         <f>VLOOKUP(B65,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="13" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4252,14 +4249,14 @@
       <c r="B66" s="2">
         <v>1</v>
       </c>
-      <c r="C66" s="3" t="str">
+      <c r="C66" s="2" t="str">
         <f>VLOOKUP(B66,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="13" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4271,14 +4268,14 @@
       <c r="B67" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="2" t="str">
         <f>VLOOKUP(B67,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="13" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4290,14 +4287,14 @@
       <c r="B68" s="2">
         <v>1</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="2" t="str">
         <f>VLOOKUP(B68,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="13" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4309,14 +4306,14 @@
       <c r="B69" s="2">
         <v>1</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="2" t="str">
         <f>VLOOKUP(B69,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4328,14 +4325,14 @@
       <c r="B70" s="2">
         <v>1</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="2" t="str">
         <f>VLOOKUP(B70,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="13" t="s">
         <v>270</v>
       </c>
     </row>
@@ -4347,14 +4344,14 @@
       <c r="B71" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="2" t="str">
         <f>VLOOKUP(B71,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4366,14 +4363,14 @@
       <c r="B72" s="2">
         <v>1</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="2" t="str">
         <f>VLOOKUP(B72,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4385,14 +4382,14 @@
       <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="2" t="str">
         <f>VLOOKUP(B73,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="13" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4404,14 +4401,14 @@
       <c r="B74" s="2">
         <v>1</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="2" t="str">
         <f>VLOOKUP(B74,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="13" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4423,14 +4420,14 @@
       <c r="B75" s="2">
         <v>1</v>
       </c>
-      <c r="C75" s="3" t="str">
+      <c r="C75" s="2" t="str">
         <f>VLOOKUP(B75,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="13" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4442,14 +4439,14 @@
       <c r="B76" s="2">
         <v>1</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="2" t="str">
         <f>VLOOKUP(B76,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4461,14 +4458,14 @@
       <c r="B77" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="2" t="str">
         <f>VLOOKUP(B77,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="13" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4480,14 +4477,14 @@
       <c r="B78" s="2">
         <v>1</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="2" t="str">
         <f>VLOOKUP(B78,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="13" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4499,14 +4496,14 @@
       <c r="B79" s="2">
         <v>2</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="2" t="str">
         <f>VLOOKUP(B79,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4522,10 +4519,10 @@
         <f>VLOOKUP(B80,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4537,14 +4534,14 @@
       <c r="B81" s="2">
         <v>2</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="2" t="str">
         <f>VLOOKUP(B81,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4556,14 +4553,14 @@
       <c r="B82" s="2">
         <v>2</v>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" s="2" t="str">
         <f>VLOOKUP(B82,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4575,14 +4572,14 @@
       <c r="B83" s="2">
         <v>2</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="2" t="str">
         <f>VLOOKUP(B83,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4594,14 +4591,14 @@
       <c r="B84" s="2">
         <v>2</v>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" s="2" t="str">
         <f>VLOOKUP(B84,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="10" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4613,14 +4610,14 @@
       <c r="B85" s="2">
         <v>2</v>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" s="2" t="str">
         <f>VLOOKUP(B85,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="11" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4632,14 +4629,14 @@
       <c r="B86" s="2">
         <v>3</v>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" s="2" t="str">
         <f>VLOOKUP(B86,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4655,10 +4652,10 @@
         <f>VLOOKUP(B87,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4674,10 +4671,10 @@
         <f>VLOOKUP(B88,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4693,10 +4690,10 @@
         <f>VLOOKUP(B89,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4708,14 +4705,14 @@
       <c r="B90" s="2">
         <v>3</v>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" s="2" t="str">
         <f>VLOOKUP(B90,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4727,14 +4724,14 @@
       <c r="B91" s="2">
         <v>3</v>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" s="2" t="str">
         <f>VLOOKUP(B91,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4750,10 +4747,10 @@
         <f>VLOOKUP(B92,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4769,10 +4766,10 @@
         <f>VLOOKUP(B93,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4784,14 +4781,14 @@
       <c r="B94" s="2">
         <v>3</v>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" s="2" t="str">
         <f>VLOOKUP(B94,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4807,10 +4804,10 @@
         <f>VLOOKUP(B95,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4826,10 +4823,10 @@
         <f>VLOOKUP(B96,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4845,10 +4842,10 @@
         <f>VLOOKUP(B97,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4864,10 +4861,10 @@
         <f>VLOOKUP(B98,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4883,10 +4880,10 @@
         <f>VLOOKUP(B99,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4902,10 +4899,10 @@
         <f>VLOOKUP(B100,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4921,10 +4918,10 @@
         <f>VLOOKUP(B101,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4940,10 +4937,10 @@
         <f>VLOOKUP(B102,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4959,10 +4956,10 @@
         <f>VLOOKUP(B103,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4978,10 +4975,10 @@
         <f>VLOOKUP(B104,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4997,10 +4994,10 @@
         <f>VLOOKUP(B105,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5016,10 +5013,10 @@
         <f>VLOOKUP(B106,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5035,10 +5032,10 @@
         <f>VLOOKUP(B107,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5054,10 +5051,10 @@
         <f>VLOOKUP(B108,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5073,10 +5070,10 @@
         <f>VLOOKUP(B109,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5092,10 +5089,10 @@
         <f>VLOOKUP(B110,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5111,10 +5108,10 @@
         <f>VLOOKUP(B111,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5130,10 +5127,10 @@
         <f>VLOOKUP(B112,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5145,14 +5142,14 @@
       <c r="B113" s="2">
         <v>4</v>
       </c>
-      <c r="C113" s="3" t="str">
+      <c r="C113" s="2" t="str">
         <f>VLOOKUP(B113,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5164,14 +5161,14 @@
       <c r="B114" s="2">
         <v>4</v>
       </c>
-      <c r="C114" s="3" t="str">
+      <c r="C114" s="2" t="str">
         <f>VLOOKUP(B114,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5183,14 +5180,14 @@
       <c r="B115" s="2">
         <v>4</v>
       </c>
-      <c r="C115" s="3" t="str">
+      <c r="C115" s="2" t="str">
         <f>VLOOKUP(B115,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5202,14 +5199,14 @@
       <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="3" t="str">
+      <c r="C116" s="2" t="str">
         <f>VLOOKUP(B116,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5221,14 +5218,14 @@
       <c r="B117" s="2">
         <v>4</v>
       </c>
-      <c r="C117" s="3" t="str">
+      <c r="C117" s="2" t="str">
         <f>VLOOKUP(B117,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5240,14 +5237,14 @@
       <c r="B118" s="2">
         <v>4</v>
       </c>
-      <c r="C118" s="3" t="str">
+      <c r="C118" s="2" t="str">
         <f>VLOOKUP(B118,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5259,14 +5256,14 @@
       <c r="B119" s="2">
         <v>4</v>
       </c>
-      <c r="C119" s="3" t="str">
+      <c r="C119" s="2" t="str">
         <f>VLOOKUP(B119,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5278,14 +5275,14 @@
       <c r="B120" s="2">
         <v>4</v>
       </c>
-      <c r="C120" s="3" t="str">
+      <c r="C120" s="2" t="str">
         <f>VLOOKUP(B120,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D120" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5297,14 +5294,14 @@
       <c r="B121" s="2">
         <v>4</v>
       </c>
-      <c r="C121" s="3" t="str">
+      <c r="C121" s="2" t="str">
         <f>VLOOKUP(B121,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" s="6" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5316,14 +5313,14 @@
       <c r="B122" s="2">
         <v>4</v>
       </c>
-      <c r="C122" s="3" t="str">
+      <c r="C122" s="2" t="str">
         <f>VLOOKUP(B122,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D122" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5335,14 +5332,14 @@
       <c r="B123" s="2">
         <v>4</v>
       </c>
-      <c r="C123" s="3" t="str">
+      <c r="C123" s="2" t="str">
         <f>VLOOKUP(B123,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D123" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5354,14 +5351,14 @@
       <c r="B124" s="2">
         <v>4</v>
       </c>
-      <c r="C124" s="3" t="str">
+      <c r="C124" s="2" t="str">
         <f>VLOOKUP(B124,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5373,14 +5370,14 @@
       <c r="B125" s="2">
         <v>4</v>
       </c>
-      <c r="C125" s="3" t="str">
+      <c r="C125" s="2" t="str">
         <f>VLOOKUP(B125,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5396,10 +5393,10 @@
         <f>VLOOKUP(B126,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D126" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5415,10 +5412,10 @@
         <f>VLOOKUP(B127,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5434,10 +5431,10 @@
         <f>VLOOKUP(B128,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5453,10 +5450,10 @@
         <f>VLOOKUP(B129,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D129" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5472,10 +5469,10 @@
         <f>VLOOKUP(B130,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5491,10 +5488,10 @@
         <f>VLOOKUP(B131,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="8" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5510,10 +5507,10 @@
         <f>VLOOKUP(B132,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D132" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5529,10 +5526,10 @@
         <f>VLOOKUP(B133,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="8" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5548,10 +5545,10 @@
         <f>VLOOKUP(B134,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5567,10 +5564,10 @@
         <f>VLOOKUP(B135,DestinationCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5753,7 +5750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE96CB-CA66-4007-A31F-9FFC4FE04600}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -5817,7 +5814,7 @@
         <f>VLOOKUP(B2,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -5826,7 +5823,7 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -5850,7 +5847,7 @@
         <f>VLOOKUP(B3,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -5859,7 +5856,7 @@
       <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5871,24 +5868,22 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="str">
+      <c r="C4" s="2" t="str">
         <f>VLOOKUP(B4,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Sex Codes</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>VLOOKUP(B4,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="2" t="str">
         <f>VLOOKUP(B4,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Gender</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -5910,14 +5905,13 @@
         <f>VLOOKUP(B5,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5941,14 +5935,13 @@
         <f>VLOOKUP(B6,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="I6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5972,14 +5965,13 @@
         <f>VLOOKUP(B7,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6003,14 +5995,13 @@
         <f>VLOOKUP(B8,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6022,26 +6013,25 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="2" t="str">
         <f>VLOOKUP(B9,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f>VLOOKUP(B9,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="2" t="str">
         <f>VLOOKUP(B9,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6065,14 +6055,13 @@
         <f>VLOOKUP(B10,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6084,26 +6073,25 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>VLOOKUP(B11,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>VLOOKUP(B11,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="2" t="str">
         <f>VLOOKUP(B11,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="I11" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6127,14 +6115,13 @@
         <f>VLOOKUP(B12,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6146,26 +6133,25 @@
       <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>VLOOKUP(B13,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f>VLOOKUP(B13,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="2" t="str">
         <f>VLOOKUP(B13,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
+      <c r="I13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6177,26 +6163,24 @@
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f>VLOOKUP(B14,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Eye Color Codes</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f>VLOOKUP(B14,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="2" t="str">
         <f>VLOOKUP(B14,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Eyes</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -6218,14 +6202,13 @@
         <f>VLOOKUP(B15,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="I15" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6249,14 +6232,13 @@
         <f>VLOOKUP(B16,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="I16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6280,14 +6262,13 @@
         <f>VLOOKUP(B17,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="I17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6299,24 +6280,22 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="2" t="str">
         <f>VLOOKUP(B18,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f>VLOOKUP(B18,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="2" t="str">
         <f>VLOOKUP(B18,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -6326,26 +6305,25 @@
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="2" t="str">
         <f>VLOOKUP(B19,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f>VLOOKUP(B19,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" s="2" t="str">
         <f>VLOOKUP(B19,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6369,14 +6347,13 @@
         <f>VLOOKUP(B20,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="I20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6400,14 +6377,13 @@
         <f>VLOOKUP(B21,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
+      <c r="I21" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6419,24 +6395,23 @@
       <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="2" t="str">
         <f>VLOOKUP(B22,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Color Codes</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f>VLOOKUP(B22,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" s="2" t="str">
         <f>VLOOKUP(B22,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="I22" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6460,14 +6435,13 @@
         <f>VLOOKUP(B23,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
+      <c r="I23" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6491,14 +6465,12 @@
         <f>VLOOKUP(B24,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -6520,14 +6492,13 @@
         <f>VLOOKUP(B25,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
+      <c r="I25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6551,14 +6522,13 @@
         <f>VLOOKUP(B26,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17" t="s">
+      <c r="I26" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6582,14 +6552,13 @@
         <f>VLOOKUP(B27,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17" t="s">
+      <c r="I27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6613,14 +6582,13 @@
         <f>VLOOKUP(B28,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Color - Hair</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17" t="s">
+      <c r="I28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6644,14 +6612,12 @@
         <f>VLOOKUP(B29,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -6673,14 +6639,13 @@
         <f>VLOOKUP(B30,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17" t="s">
+      <c r="I30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6704,14 +6669,13 @@
         <f>VLOOKUP(B31,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
+      <c r="I31" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6735,14 +6699,13 @@
         <f>VLOOKUP(B32,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
+      <c r="I32" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6766,14 +6729,12 @@
         <f>VLOOKUP(B33,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -6783,26 +6744,25 @@
       <c r="B34" s="2">
         <v>4</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="2" t="str">
         <f>VLOOKUP(B34,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Hair Style Codes</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <f>VLOOKUP(B34,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="3" t="str">
+      <c r="E34" s="2" t="str">
         <f>VLOOKUP(B34,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
+      <c r="I34" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6826,14 +6786,12 @@
         <f>VLOOKUP(B35,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -6855,14 +6813,12 @@
         <f>VLOOKUP(B36,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -6884,14 +6840,13 @@
         <f>VLOOKUP(B37,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17" t="s">
+      <c r="I37" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6915,14 +6870,13 @@
         <f>VLOOKUP(B38,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17" t="s">
+      <c r="I38" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6946,14 +6900,13 @@
         <f>VLOOKUP(B39,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17" t="s">
+      <c r="I39" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6977,12 +6930,10 @@
         <f>VLOOKUP(B40,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -7004,14 +6955,12 @@
         <f>VLOOKUP(B41,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Hair Style</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>121</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -7033,14 +6982,12 @@
         <f>VLOOKUP(B42,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -7062,14 +7009,13 @@
         <f>VLOOKUP(B43,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17" t="s">
+      <c r="I43" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7093,14 +7039,13 @@
         <f>VLOOKUP(B44,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17" t="s">
+      <c r="I44" t="s">
         <v>87</v>
       </c>
     </row>
@@ -7124,14 +7069,13 @@
         <f>VLOOKUP(B45,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17" t="s">
+      <c r="I45" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7155,14 +7099,13 @@
         <f>VLOOKUP(B46,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17" t="s">
+      <c r="I46" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7186,14 +7129,13 @@
         <f>VLOOKUP(B47,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17" t="s">
+      <c r="I47" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7217,14 +7159,13 @@
         <f>VLOOKUP(B48,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17" t="s">
+      <c r="I48" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7248,14 +7189,13 @@
         <f>VLOOKUP(B49,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17" t="s">
+      <c r="I49" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7279,14 +7219,13 @@
         <f>VLOOKUP(B50,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="3">
         <v>2501</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17" t="s">
+      <c r="I50" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7295,26 +7234,25 @@
       <c r="B51" s="2">
         <v>5</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="2" t="str">
         <f>VLOOKUP(B51,SourceCategories!$A$2:$C$6,3,FALSE)</f>
         <v>Incident Type Codes</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <f>VLOOKUP(B51,CategoryMappings!$A$2:$E$6,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="E51" s="3" t="str">
+      <c r="E51" s="2" t="str">
         <f>VLOOKUP(B51,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>189</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17" t="s">
+      <c r="I51" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7338,12 +7276,10 @@
         <f>VLOOKUP(B52,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3">
         <v>2660</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -7365,14 +7301,13 @@
         <f>VLOOKUP(B53,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17" t="s">
+      <c r="I53" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7396,12 +7331,11 @@
         <f>VLOOKUP(B54,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17" t="s">
+      <c r="I54" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7425,12 +7359,11 @@
         <f>VLOOKUP(B55,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17" t="s">
+      <c r="I55" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7454,14 +7387,13 @@
         <f>VLOOKUP(B56,CategoryMappings!$A$2:$E$6,5,FALSE)</f>
         <v>Incident Types</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17" t="s">
+      <c r="I56" t="s">
         <v>105</v>
       </c>
     </row>
